--- a/target/test-classes/DataTest/Login.xlsx
+++ b/target/test-classes/DataTest/Login.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HangDriver\project\Project_nopCommerce\src\test\resources\DataTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E52A11-021A-4A8A-B846-B26F2234BCC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C347705D-ABA2-4B97-920B-9ECCDB11F114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{9D55CE27-C8DF-4DCA-BF65-9611EB5E7CF6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9D55CE27-C8DF-4DCA-BF65-9611EB5E7CF6}"/>
   </bookViews>
   <sheets>
     <sheet name="loginPass" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>Email</t>
   </si>
@@ -50,6 +50,13 @@
   </si>
   <si>
     <t>admin123</t>
+  </si>
+  <si>
+    <t>ErrorMsg</t>
+  </si>
+  <si>
+    <t>Login was unsuccessful. Please correct the errors and try again.
+The credentials provided are incorrect</t>
   </si>
 </sst>
 </file>
@@ -115,11 +122,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -437,8 +447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6246936-40E4-4C56-A76D-06EC9E6D09C9}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -474,32 +484,39 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{822D223B-3795-4604-B712-14416BB032B0}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="35.6328125" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="65.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/target/test-classes/DataTest/Login.xlsx
+++ b/target/test-classes/DataTest/Login.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HangDriver\project\Project_nopCommerce\src\test\resources\DataTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C347705D-ABA2-4B97-920B-9ECCDB11F114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934DA160-9B77-45E2-BEDE-4BB735AA037A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9D55CE27-C8DF-4DCA-BF65-9611EB5E7CF6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{9D55CE27-C8DF-4DCA-BF65-9611EB5E7CF6}"/>
   </bookViews>
   <sheets>
     <sheet name="loginPass" sheetId="1" r:id="rId1"/>
-    <sheet name="loginFailPW" sheetId="2" r:id="rId2"/>
+    <sheet name="loginFailEmail" sheetId="4" r:id="rId2"/>
+    <sheet name="loginFailPW" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
   <si>
     <t>Email</t>
   </si>
@@ -44,9 +45,6 @@
   </si>
   <si>
     <t>admin@yourstore.com</t>
-  </si>
-  <si>
-    <t>admin</t>
   </si>
   <si>
     <t>admin123</t>
@@ -57,6 +55,12 @@
   <si>
     <t>Login was unsuccessful. Please correct the errors and try again.
 The credentials provided are incorrect</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>admin1@yourstore.com</t>
   </si>
 </sst>
 </file>
@@ -447,8 +451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6246936-40E4-4C56-A76D-06EC9E6D09C9}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -470,7 +474,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -483,6 +487,52 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9962F997-2CBA-474F-BBAC-86C2190C66EB}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="35.6328125" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="65.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{10B64D5B-82A6-4E6A-81BC-B89DDA8298CC}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{822D223B-3795-4604-B712-14416BB032B0}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -505,7 +555,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -513,10 +563,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/target/test-classes/DataTest/Login.xlsx
+++ b/target/test-classes/DataTest/Login.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HangDriver\project\Project_nopCommerce\src\test\resources\DataTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934DA160-9B77-45E2-BEDE-4BB735AA037A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED20230-E1AC-4BC6-8467-73122A9D5181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{9D55CE27-C8DF-4DCA-BF65-9611EB5E7CF6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
   <si>
     <t>Email</t>
   </si>
@@ -61,6 +61,10 @@
   </si>
   <si>
     <t>admin1@yourstore.com</t>
+  </si>
+  <si>
+    <t>Login was unsuccessful. Please correct the errors and try again.
+No customer account found</t>
   </si>
 </sst>
 </file>
@@ -491,7 +495,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -520,7 +524,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
